--- a/excel/test/shanRoyale2022Data1.xlsx
+++ b/excel/test/shanRoyale2022Data1.xlsx
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -2448,14 +2448,64 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>chat_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>elimination_target</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>praveeeenk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>praveeeenk</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;dbhelper.DBHelper object at 0x00000156784073A0&gt;</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>258884638</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excel/test/shanRoyale2022Data1.xlsx
+++ b/excel/test/shanRoyale2022Data1.xlsx
@@ -2448,64 +2448,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>db</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>chat_id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>elimination_target</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>praveeeenk</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>praveeeenk</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&lt;dbhelper.DBHelper object at 0x00000156784073A0&gt;</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>258884638</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excel/test/shanRoyale2022Data1.xlsx
+++ b/excel/test/shanRoyale2022Data1.xlsx
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>praveeeenk</t>
+          <t>Casperplz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>praveeeenk</t>
+          <t>Casperplz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KRISHNAMOORTHI PRAVEEN</t>
+          <t>CASPER CHENG YUE JUU</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -542,17 +542,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Casperplz</t>
+          <t>poofingfudges</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Casperplz</t>
+          <t>poofingfudges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CASPER CHENG YUE JUU</t>
+          <t>PRICILLA</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -586,17 +586,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>poofingfudges</t>
+          <t>itsraininggg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>poofingfudges</t>
+          <t>itsraininggg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRICILLA</t>
+          <t>JIAWEI</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -630,17 +630,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>itsraininggg</t>
+          <t>itscharlottelah</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>itsraininggg</t>
+          <t>itscharlottelah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JIAWEI</t>
+          <t>CHARLOTTE</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -674,21 +674,21 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>itscharlottelah</t>
+          <t>vigonometry</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>itscharlottelah</t>
+          <t>vigonometry</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHARLOTTE</t>
+          <t>VIGNESHWAR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -718,17 +718,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>vigonometry</t>
+          <t>ddannyiel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>vigonometry</t>
+          <t>ddannyiel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VIGNESHWAR</t>
+          <t>DANIEL LIM</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -762,17 +762,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ddannyiel</t>
+          <t>buttermebuns</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ddannyiel</t>
+          <t>buttermebuns</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DANIEL LIM</t>
+          <t>JASMOND TAN</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -806,17 +806,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>buttermebuns</t>
+          <t>LianKit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>buttermebuns</t>
+          <t>LianKit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JASMOND TAN</t>
+          <t>LIAN KIT</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -850,17 +850,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LianKit</t>
+          <t>kelsomebody</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LianKit</t>
+          <t>kelsomebody</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIAN KIT</t>
+          <t>KELVIN CHAN</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -894,17 +894,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>kelsomebody</t>
+          <t>jacindatsen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kelsomebody</t>
+          <t>jacindatsen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KELVIN CHAN</t>
+          <t>JACINDA TSEN</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -938,21 +938,21 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>jacindatsen</t>
+          <t>Jobeet</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jacindatsen</t>
+          <t>Jobeet</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JACINDA TSEN</t>
+          <t>JOANNE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -982,17 +982,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jobeet</t>
+          <t>kelsykoh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jobeet</t>
+          <t>kelsykoh</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JOANNE</t>
+          <t>KELSY KOH</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1026,17 +1026,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>kelsykoh</t>
+          <t>keziakhoo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kelsykoh</t>
+          <t>keziakhoo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KELSY KOH</t>
+          <t>KEZIA KHOO</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1070,17 +1070,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>keziakhoo</t>
+          <t>itsyelsew</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>keziakhoo</t>
+          <t>itsyelsew</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KEZIA KHOO</t>
+          <t>WESLEY</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1114,21 +1114,21 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>itsyelsew</t>
+          <t>ongsy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>itsyelsew</t>
+          <t>ongsy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WESLEY</t>
+          <t>SHAO YONG</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1158,17 +1158,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ongsy</t>
+          <t>marc00s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ongsy</t>
+          <t>marc00s</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SHAO YONG</t>
+          <t>MARCUS</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1202,17 +1202,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>marc00s</t>
+          <t>Beeyyekem</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>marc00s</t>
+          <t>Beeyyekem</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MARCUS</t>
+          <t>BECK</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1246,17 +1246,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Beeyyekem</t>
+          <t>jodytng</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Beeyyekem</t>
+          <t>jodytng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BECK</t>
+          <t>JODY TNG</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1290,30 +1290,30 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>jodytng</t>
+          <t>praveeeenk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jodytng</t>
+          <t>praveeeenk</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JODY TNG</t>
+          <t>KRISHNAMOORTHI PRAVEEN</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2448,14 +2448,70 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>chat_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>smite_target</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>smite_tier</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>praveeeenk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>praveeeenk</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;dbhelper.DBHelper object at 0x00000202B10A7430&gt;</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>258884638</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2466,14 +2522,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>praveeeenk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>praveeeenk</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>StateEnum.adminBroadcast</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel/test/shanRoyale2022Data1.xlsx
+++ b/excel/test/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FFDBBB-70B1-4803-A522-FB631DFA840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A01A45-40E2-42B9-8B50-23D3EFE72485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>username</t>
   </si>
@@ -217,12 +217,6 @@
   </si>
   <si>
     <t>smite_tier</t>
-  </si>
-  <si>
-    <t>&lt;dbhelper.DBHelper object at 0x000001D0A64E9B10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dbhelper.DBHelper object at 0x000001D0A674FB20&gt;</t>
   </si>
   <si>
     <t>text</t>
@@ -595,7 +589,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1295,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1339,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1366,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2035,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2055,13 +2049,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2073,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2093,13 +2087,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2111,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2138,7 +2132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2167,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2187,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2207,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2227,13 +2223,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2296,11 +2292,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2331,9 +2325,6 @@
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
       <c r="E2">
         <v>258884638</v>
       </c>
@@ -2345,9 +2336,6 @@
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
       <c r="E3">
         <v>355739375</v>
       </c>
@@ -2372,6 +2360,28 @@
       </c>
       <c r="E5">
         <v>221510402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>111079315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>356246089</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2395,7 +2407,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2406,7 +2418,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
